--- a/SuppXLS/Scen_1.1_PricesFuel.xlsx
+++ b/SuppXLS/Scen_1.1_PricesFuel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29530"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\esma\OTAI\SuppXLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\esma\DEVTAI\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4120AC45-8BCA-4A1C-8A81-ED34E34A2801}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8D428AA-2725-4F6A-BA08-C659031CB5B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="82530" yWindow="2610" windowWidth="25410" windowHeight="18510" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SUP" sheetId="2" r:id="rId1"/>
@@ -992,8 +992,8 @@
   </sheetPr>
   <dimension ref="A1:AI27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AD22" sqref="AD22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1268,7 +1268,7 @@
         <v>27</v>
       </c>
       <c r="F5" s="4">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.25">
@@ -1465,10 +1465,10 @@
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="15">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H11" s="15">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="I11" s="15">
         <v>8.8000000000000007</v>
@@ -1660,7 +1660,7 @@
         <v>26.422787677725122</v>
       </c>
       <c r="H13" s="4">
-        <v>24.895400947867302</v>
+        <v>22</v>
       </c>
       <c r="I13" s="4">
         <v>23.364472985781994</v>
@@ -1958,7 +1958,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A55F0F24-4631-4E03-886A-2CBD8F10177D}">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
